--- a/rezultati.xlsx
+++ b/rezultati.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D1B7D-9238-4D01-A2A7-EAC33F443E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3450054-9BD9-4734-9025-BF5D911347D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{96C5A90F-C34F-4519-B00D-DC4CD6CFF217}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{96C5A90F-C34F-4519-B00D-DC4CD6CFF217}"/>
   </bookViews>
   <sheets>
     <sheet name="suma" sheetId="1" r:id="rId1"/>
-    <sheet name="CSR" sheetId="3" r:id="rId2"/>
+    <sheet name="CSR suma" sheetId="3" r:id="rId2"/>
     <sheet name="proizvod" sheetId="2" r:id="rId3"/>
+    <sheet name="CSR proizvod" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="25">
   <si>
     <t>Velicina</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>PROIZVOD (70 do 80 posto nula)</t>
+  </si>
+  <si>
+    <t>PROIZVOD (90 do 99 posto nula)</t>
+  </si>
+  <si>
+    <t>PROIZVOD ( 99 posto nula)</t>
   </si>
 </sst>
 </file>
@@ -326,8 +333,11 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,11 +345,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,18 +695,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -734,7 +741,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -766,7 +773,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -796,7 +803,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -826,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -856,7 +863,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -886,7 +893,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -916,7 +923,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -946,7 +953,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -976,7 +983,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1006,7 +1013,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1077,18 +1084,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1123,7 +1130,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2">
@@ -1155,7 +1162,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -1185,7 +1192,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -1215,7 +1222,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1252,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -1275,7 +1282,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -1305,7 +1312,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2">
         <v>0</v>
       </c>
@@ -1335,7 +1342,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -1365,7 +1372,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -1395,7 +1402,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -1466,18 +1473,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -1512,7 +1519,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2">
@@ -1544,7 +1551,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -1574,7 +1581,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -1604,7 +1611,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="2">
         <v>0</v>
       </c>
@@ -1634,7 +1641,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="2">
         <v>0</v>
       </c>
@@ -1664,7 +1671,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2">
         <v>0</v>
       </c>
@@ -1694,7 +1701,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -1724,7 +1731,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="2">
         <v>0</v>
       </c>
@@ -1754,7 +1761,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="2">
         <v>0</v>
       </c>
@@ -1784,7 +1791,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="2">
         <v>0</v>
       </c>
@@ -1855,18 +1862,18 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -1901,7 +1908,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="2">
@@ -1933,7 +1940,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="2">
         <v>0</v>
       </c>
@@ -1963,7 +1970,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="2">
         <v>0</v>
       </c>
@@ -1993,7 +2000,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="2">
         <v>0</v>
       </c>
@@ -2023,7 +2030,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="2">
         <v>0</v>
       </c>
@@ -2053,7 +2060,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="2">
         <v>0</v>
       </c>
@@ -2083,7 +2090,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="2">
         <v>0</v>
       </c>
@@ -2113,7 +2120,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="2">
         <v>0</v>
       </c>
@@ -2143,7 +2150,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="2">
         <v>0</v>
       </c>
@@ -2173,7 +2180,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="2">
         <v>0</v>
       </c>
@@ -2244,18 +2251,18 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -2290,7 +2297,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="2">
@@ -2322,7 +2329,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -2352,7 +2359,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="2">
         <v>0</v>
       </c>
@@ -2382,7 +2389,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="2">
         <v>0</v>
       </c>
@@ -2412,7 +2419,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="2">
         <v>0</v>
       </c>
@@ -2442,7 +2449,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="2">
         <v>0</v>
       </c>
@@ -2472,7 +2479,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="2">
         <v>0</v>
       </c>
@@ -2502,7 +2509,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="2">
         <v>0</v>
       </c>
@@ -2532,7 +2539,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="2">
         <v>0</v>
       </c>
@@ -2562,7 +2569,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="2">
         <v>0</v>
       </c>
@@ -2633,18 +2640,18 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -2679,7 +2686,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="2">
@@ -2711,7 +2718,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="2">
         <v>0</v>
       </c>
@@ -2741,7 +2748,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="2">
         <v>0</v>
       </c>
@@ -2771,7 +2778,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="2">
         <v>0</v>
       </c>
@@ -2801,7 +2808,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="2">
         <v>0</v>
       </c>
@@ -2831,7 +2838,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="2">
         <v>0</v>
       </c>
@@ -2861,7 +2868,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="2">
         <v>0</v>
       </c>
@@ -2891,7 +2898,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="2">
         <v>0</v>
       </c>
@@ -2921,7 +2928,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="2">
         <v>0</v>
       </c>
@@ -2951,7 +2958,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="2">
         <v>0</v>
       </c>
@@ -3103,7 +3110,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -3135,7 +3142,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -3165,7 +3172,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -3195,7 +3202,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -3225,7 +3232,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -3255,7 +3262,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -3285,7 +3292,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -3315,7 +3322,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -3345,7 +3352,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -3375,7 +3382,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -3492,7 +3499,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="2">
@@ -3524,7 +3531,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2">
         <v>0</v>
       </c>
@@ -3554,7 +3561,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -3584,7 +3591,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -3614,7 +3621,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -3644,7 +3651,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -3674,7 +3681,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -3704,7 +3711,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2">
         <v>0</v>
       </c>
@@ -3734,7 +3741,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -3764,7 +3771,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -3881,7 +3888,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2">
@@ -3913,7 +3920,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="2">
         <v>0</v>
       </c>
@@ -3943,7 +3950,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>0</v>
       </c>
@@ -3973,7 +3980,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -4003,7 +4010,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -4033,7 +4040,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="2">
         <v>0</v>
       </c>
@@ -4063,7 +4070,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="2">
         <v>0</v>
       </c>
@@ -4093,7 +4100,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2">
         <v>0</v>
       </c>
@@ -4123,7 +4130,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -4153,7 +4160,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="2">
         <v>0</v>
       </c>
@@ -4270,7 +4277,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="2">
@@ -4302,7 +4309,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="2">
         <v>0</v>
       </c>
@@ -4332,7 +4339,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="2">
         <v>0</v>
       </c>
@@ -4362,7 +4369,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="2">
         <v>0</v>
       </c>
@@ -4392,7 +4399,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="2">
         <v>0</v>
       </c>
@@ -4422,7 +4429,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="2">
         <v>0</v>
       </c>
@@ -4452,7 +4459,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="2">
         <v>0</v>
       </c>
@@ -4482,7 +4489,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="2">
         <v>0</v>
       </c>
@@ -4512,7 +4519,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="2">
         <v>0</v>
       </c>
@@ -4542,7 +4549,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="2">
         <v>0</v>
       </c>
@@ -4659,7 +4666,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="2">
@@ -4691,7 +4698,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="2">
         <v>0</v>
       </c>
@@ -4721,7 +4728,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="2">
         <v>0</v>
       </c>
@@ -4751,7 +4758,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="2">
         <v>0</v>
       </c>
@@ -4781,7 +4788,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -4811,7 +4818,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="2">
         <v>0</v>
       </c>
@@ -4841,7 +4848,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="2">
         <v>0</v>
       </c>
@@ -4871,7 +4878,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="2">
         <v>0</v>
       </c>
@@ -4901,7 +4908,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="2">
         <v>0</v>
       </c>
@@ -4931,7 +4938,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="2">
         <v>0</v>
       </c>
@@ -5051,7 +5058,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="2">
@@ -5083,7 +5090,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="2">
         <v>0</v>
       </c>
@@ -5113,7 +5120,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="2">
         <v>0</v>
       </c>
@@ -5143,7 +5150,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="2">
         <v>0</v>
       </c>
@@ -5173,7 +5180,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="2">
         <v>0</v>
       </c>
@@ -5203,7 +5210,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="2">
         <v>0</v>
       </c>
@@ -5233,7 +5240,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="2">
         <v>0</v>
       </c>
@@ -5263,7 +5270,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="2">
         <v>0</v>
       </c>
@@ -5293,7 +5300,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="2">
         <v>0</v>
       </c>
@@ -5323,7 +5330,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="2">
         <v>0</v>
       </c>
@@ -5414,19 +5421,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CDAA65-CDCA-4FFA-BDD0-E829A9B3632B}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A94" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
@@ -5436,9 +5442,8 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5460,12 +5465,9 @@
       <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -5486,12 +5488,9 @@
       <c r="G3" s="11">
         <v>394</v>
       </c>
-      <c r="H3" s="14">
-        <v>3702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -5510,12 +5509,9 @@
       <c r="G4" s="11">
         <v>423</v>
       </c>
-      <c r="H4" s="14">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -5534,12 +5530,9 @@
       <c r="G5" s="11">
         <v>408</v>
       </c>
-      <c r="H5" s="14">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -5558,12 +5551,9 @@
       <c r="G6" s="11">
         <v>403</v>
       </c>
-      <c r="H6" s="14">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -5582,12 +5572,9 @@
       <c r="G7" s="11">
         <v>403</v>
       </c>
-      <c r="H7" s="14">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -5606,12 +5593,9 @@
       <c r="G8" s="11">
         <v>395</v>
       </c>
-      <c r="H8" s="14">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -5630,12 +5614,9 @@
       <c r="G9" s="11">
         <v>398</v>
       </c>
-      <c r="H9" s="14">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -5654,12 +5635,9 @@
       <c r="G10" s="11">
         <v>402</v>
       </c>
-      <c r="H10" s="14">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -5678,12 +5656,9 @@
       <c r="G11" s="11">
         <v>394</v>
       </c>
-      <c r="H11" s="14">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -5702,11 +5677,8 @@
       <c r="G12" s="11">
         <v>401</v>
       </c>
-      <c r="H12" s="14">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -5715,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:H13" si="0">AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C13:G13" si="0">AVERAGE(C3:C12)</f>
         <v>0</v>
       </c>
       <c r="D13" s="7">
@@ -5734,12 +5706,8 @@
         <f t="shared" si="0"/>
         <v>402.1</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>3548.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>19</v>
       </c>
@@ -5749,9 +5717,8 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -5773,12 +5740,9 @@
       <c r="G21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2">
@@ -5799,12 +5763,9 @@
       <c r="G22" s="11">
         <v>379</v>
       </c>
-      <c r="H22" s="14">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -5823,12 +5784,9 @@
       <c r="G23" s="11">
         <v>429</v>
       </c>
-      <c r="H23" s="14">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -5847,12 +5805,9 @@
       <c r="G24" s="11">
         <v>109</v>
       </c>
-      <c r="H24" s="14">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -5871,12 +5826,9 @@
       <c r="G25" s="11">
         <v>418</v>
       </c>
-      <c r="H25" s="14">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -5895,12 +5847,9 @@
       <c r="G26" s="11">
         <v>398</v>
       </c>
-      <c r="H26" s="14">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -5919,12 +5868,9 @@
       <c r="G27" s="11">
         <v>388</v>
       </c>
-      <c r="H27" s="14">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
       <c r="B28" s="2">
         <v>0</v>
       </c>
@@ -5943,12 +5889,9 @@
       <c r="G28" s="11">
         <v>444</v>
       </c>
-      <c r="H28" s="14">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -5967,12 +5910,9 @@
       <c r="G29" s="11">
         <v>390</v>
       </c>
-      <c r="H29" s="14">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -5991,12 +5931,9 @@
       <c r="G30" s="11">
         <v>398</v>
       </c>
-      <c r="H30" s="14">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -6015,11 +5952,8 @@
       <c r="G31" s="11">
         <v>397</v>
       </c>
-      <c r="H31" s="14">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -6028,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:H32" si="1">AVERAGE(C22:C31)</f>
+        <f t="shared" ref="C32:G32" si="1">AVERAGE(C22:C31)</f>
         <v>0.1</v>
       </c>
       <c r="D32" s="7">
@@ -6047,12 +5981,8 @@
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="1"/>
-        <v>3503.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>20</v>
       </c>
@@ -6062,9 +5992,8 @@
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -6086,12 +6015,9 @@
       <c r="G40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2">
@@ -6112,12 +6038,9 @@
       <c r="G41" s="11">
         <v>401</v>
       </c>
-      <c r="H41" s="14">
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -6136,12 +6059,9 @@
       <c r="G42" s="11">
         <v>405</v>
       </c>
-      <c r="H42" s="14">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -6160,12 +6080,9 @@
       <c r="G43" s="11">
         <v>398</v>
       </c>
-      <c r="H43" s="14">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="2">
         <v>0</v>
       </c>
@@ -6184,12 +6101,9 @@
       <c r="G44" s="11">
         <v>400</v>
       </c>
-      <c r="H44" s="14">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="2">
         <v>0</v>
       </c>
@@ -6208,12 +6122,9 @@
       <c r="G45" s="11">
         <v>391</v>
       </c>
-      <c r="H45" s="14">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="2">
         <v>0</v>
       </c>
@@ -6232,12 +6143,9 @@
       <c r="G46" s="11">
         <v>385</v>
       </c>
-      <c r="H46" s="14">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -6256,12 +6164,9 @@
       <c r="G47" s="11">
         <v>384</v>
       </c>
-      <c r="H47" s="14">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
       <c r="B48" s="2">
         <v>0</v>
       </c>
@@ -6280,12 +6185,9 @@
       <c r="G48" s="11">
         <v>401</v>
       </c>
-      <c r="H48" s="14">
-        <v>3823</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
       <c r="B49" s="2">
         <v>0</v>
       </c>
@@ -6304,12 +6206,9 @@
       <c r="G49" s="11">
         <v>405</v>
       </c>
-      <c r="H49" s="14">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
       <c r="B50" s="2">
         <v>0</v>
       </c>
@@ -6328,11 +6227,8 @@
       <c r="G50" s="11">
         <v>398</v>
       </c>
-      <c r="H50" s="14">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6341,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="7">
-        <f t="shared" ref="C51:H51" si="2">AVERAGE(C41:C50)</f>
+        <f t="shared" ref="C51:G51" si="2">AVERAGE(C41:C50)</f>
         <v>0.1</v>
       </c>
       <c r="D51" s="7">
@@ -6360,12 +6256,8 @@
         <f t="shared" si="2"/>
         <v>396.8</v>
       </c>
-      <c r="H51" s="7">
-        <f t="shared" si="2"/>
-        <v>3692.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>22</v>
       </c>
@@ -6375,9 +6267,8 @@
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -6399,12 +6290,9 @@
       <c r="G58" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="2">
@@ -6425,12 +6313,9 @@
       <c r="G59" s="11">
         <v>367</v>
       </c>
-      <c r="H59" s="14">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
       <c r="B60" s="2">
         <v>0</v>
       </c>
@@ -6449,12 +6334,9 @@
       <c r="G60" s="11">
         <v>362</v>
       </c>
-      <c r="H60" s="14">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
       <c r="B61" s="2">
         <v>0</v>
       </c>
@@ -6473,12 +6355,9 @@
       <c r="G61" s="11">
         <v>363</v>
       </c>
-      <c r="H61" s="14">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
       <c r="B62" s="2">
         <v>0</v>
       </c>
@@ -6497,12 +6376,9 @@
       <c r="G62" s="11">
         <v>362</v>
       </c>
-      <c r="H62" s="14">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
       <c r="B63" s="2">
         <v>0</v>
       </c>
@@ -6521,12 +6397,9 @@
       <c r="G63" s="11">
         <v>371</v>
       </c>
-      <c r="H63" s="14">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
       <c r="B64" s="2">
         <v>0</v>
       </c>
@@ -6545,12 +6418,9 @@
       <c r="G64" s="11">
         <v>356</v>
       </c>
-      <c r="H64" s="14">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
       <c r="B65" s="2">
         <v>0</v>
       </c>
@@ -6569,12 +6439,9 @@
       <c r="G65" s="11">
         <v>368</v>
       </c>
-      <c r="H65" s="14">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
       <c r="B66" s="2">
         <v>0</v>
       </c>
@@ -6593,12 +6460,9 @@
       <c r="G66" s="11">
         <v>362</v>
       </c>
-      <c r="H66" s="14">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
       <c r="B67" s="2">
         <v>0</v>
       </c>
@@ -6617,12 +6481,9 @@
       <c r="G67" s="11">
         <v>365</v>
       </c>
-      <c r="H67" s="14">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
       <c r="B68" s="2">
         <v>0</v>
       </c>
@@ -6641,11 +6502,8 @@
       <c r="G68" s="11">
         <v>359</v>
       </c>
-      <c r="H68" s="14">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>8</v>
       </c>
@@ -6654,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" ref="C69:H69" si="3">AVERAGE(C59:C68)</f>
+        <f t="shared" ref="C69:G69" si="3">AVERAGE(C59:C68)</f>
         <v>0</v>
       </c>
       <c r="D69" s="7">
@@ -6673,12 +6531,8 @@
         <f t="shared" si="3"/>
         <v>363.5</v>
       </c>
-      <c r="H69" s="7">
-        <f t="shared" si="3"/>
-        <v>3512.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>21</v>
       </c>
@@ -6688,9 +6542,8 @@
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>0</v>
       </c>
@@ -6712,12 +6565,9 @@
       <c r="G76" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="2">
@@ -6738,12 +6588,9 @@
       <c r="G77" s="11">
         <v>362</v>
       </c>
-      <c r="H77" s="14">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -6762,12 +6609,9 @@
       <c r="G78" s="11">
         <v>364</v>
       </c>
-      <c r="H78" s="14">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
       <c r="B79" s="2">
         <v>0</v>
       </c>
@@ -6786,12 +6630,9 @@
       <c r="G79" s="11">
         <v>359</v>
       </c>
-      <c r="H79" s="14">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
       <c r="B80" s="2">
         <v>0</v>
       </c>
@@ -6810,12 +6651,9 @@
       <c r="G80" s="11">
         <v>358</v>
       </c>
-      <c r="H80" s="14">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
       <c r="B81" s="2">
         <v>0</v>
       </c>
@@ -6834,12 +6672,9 @@
       <c r="G81" s="11">
         <v>368</v>
       </c>
-      <c r="H81" s="14">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
       <c r="B82" s="2">
         <v>0</v>
       </c>
@@ -6858,12 +6693,9 @@
       <c r="G82" s="11">
         <v>361</v>
       </c>
-      <c r="H82" s="14">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
       <c r="B83" s="2">
         <v>0</v>
       </c>
@@ -6882,12 +6714,9 @@
       <c r="G83" s="11">
         <v>361</v>
       </c>
-      <c r="H83" s="14">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
       <c r="B84" s="2">
         <v>0</v>
       </c>
@@ -6906,12 +6735,9 @@
       <c r="G84" s="11">
         <v>360</v>
       </c>
-      <c r="H84" s="14">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
       <c r="B85" s="2">
         <v>0</v>
       </c>
@@ -6930,12 +6756,9 @@
       <c r="G85" s="11">
         <v>360</v>
       </c>
-      <c r="H85" s="14">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
       <c r="B86" s="2">
         <v>0</v>
       </c>
@@ -6954,11 +6777,8 @@
       <c r="G86" s="11">
         <v>355</v>
       </c>
-      <c r="H86" s="14">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>8</v>
       </c>
@@ -6967,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" ref="C87:H87" si="4">AVERAGE(C77:C86)</f>
+        <f t="shared" ref="C87:G87" si="4">AVERAGE(C77:C86)</f>
         <v>0</v>
       </c>
       <c r="D87" s="7">
@@ -6986,25 +6806,2535 @@
         <f t="shared" si="4"/>
         <v>360.8</v>
       </c>
-      <c r="H87" s="7">
-        <f t="shared" si="4"/>
-        <v>3481.8</v>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+      <c r="F95" s="10">
+        <v>3</v>
+      </c>
+      <c r="G95" s="11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10">
+        <v>3</v>
+      </c>
+      <c r="G96" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="10">
+        <v>3</v>
+      </c>
+      <c r="G97" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="10">
+        <v>3</v>
+      </c>
+      <c r="G98" s="11">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1</v>
+      </c>
+      <c r="F99" s="10">
+        <v>2</v>
+      </c>
+      <c r="G99" s="11">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8">
+        <v>1</v>
+      </c>
+      <c r="F100" s="10">
+        <v>3</v>
+      </c>
+      <c r="G100" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="10">
+        <v>3</v>
+      </c>
+      <c r="G101" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="10">
+        <v>4</v>
+      </c>
+      <c r="G102" s="11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8">
+        <v>1</v>
+      </c>
+      <c r="F103" s="10">
+        <v>5</v>
+      </c>
+      <c r="G103" s="11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0</v>
+      </c>
+      <c r="E104" s="8">
+        <v>1</v>
+      </c>
+      <c r="F104" s="10">
+        <v>3</v>
+      </c>
+      <c r="G104" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7">
+        <f>AVERAGE(B95:B104)</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="7">
+        <f t="shared" ref="C105:G105" si="5">AVERAGE(C95:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="5"/>
+        <v>352.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
+        <v>1</v>
+      </c>
+      <c r="F112" s="10">
+        <v>3</v>
+      </c>
+      <c r="G112" s="11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1</v>
+      </c>
+      <c r="F113" s="10">
+        <v>3</v>
+      </c>
+      <c r="G113" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <v>1</v>
+      </c>
+      <c r="F114" s="10">
+        <v>4</v>
+      </c>
+      <c r="G114" s="11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1</v>
+      </c>
+      <c r="F115" s="10">
+        <v>2</v>
+      </c>
+      <c r="G115" s="11">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="23"/>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="8">
+        <v>1</v>
+      </c>
+      <c r="F116" s="10">
+        <v>3</v>
+      </c>
+      <c r="G116" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="10">
+        <v>2</v>
+      </c>
+      <c r="G117" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10">
+        <v>3</v>
+      </c>
+      <c r="G118" s="11">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10">
+        <v>3</v>
+      </c>
+      <c r="G119" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8">
+        <v>1</v>
+      </c>
+      <c r="F120" s="10">
+        <v>4</v>
+      </c>
+      <c r="G120" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0</v>
+      </c>
+      <c r="E121" s="8">
+        <v>1</v>
+      </c>
+      <c r="F121" s="10">
+        <v>3</v>
+      </c>
+      <c r="G121" s="11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="7">
+        <f>AVERAGE(B112:B121)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="7">
+        <f t="shared" ref="C122:G122" si="6">AVERAGE(C112:C121)</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" si="6"/>
+        <v>355.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="A77:A86"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ADFB34-FAAC-486D-ADE9-C4681EAF09A0}">
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10">
+        <v>67</v>
+      </c>
+      <c r="G3" s="11">
+        <v>47526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10">
+        <v>92</v>
+      </c>
+      <c r="G4" s="11">
+        <v>48314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>87</v>
+      </c>
+      <c r="G5" s="11">
+        <v>52274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>142</v>
+      </c>
+      <c r="G6" s="11">
+        <v>40433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10">
+        <v>105</v>
+      </c>
+      <c r="G7" s="11">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>94</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10">
+        <v>74</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10">
+        <v>83</v>
+      </c>
+      <c r="G10" s="11">
+        <v>48456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10">
+        <v>106</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10">
+        <v>96</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:G13" si="0">AVERAGE(C3:C12)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>94.6</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>45840.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+      <c r="E22" s="14">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43</v>
+      </c>
+      <c r="G22" s="11">
+        <v>31033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>10</v>
+      </c>
+      <c r="F23" s="10">
+        <v>44</v>
+      </c>
+      <c r="G23" s="11">
+        <v>27192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10">
+        <v>56</v>
+      </c>
+      <c r="G24" s="11">
+        <v>34471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10">
+        <v>53</v>
+      </c>
+      <c r="G25" s="11">
+        <v>32215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10">
+        <v>42</v>
+      </c>
+      <c r="G26" s="11">
+        <v>26492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10">
+        <v>54</v>
+      </c>
+      <c r="G27" s="11">
+        <v>31651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>12</v>
+      </c>
+      <c r="F28" s="10">
+        <v>63</v>
+      </c>
+      <c r="G28" s="11">
+        <v>26477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10">
+        <v>78</v>
+      </c>
+      <c r="G29" s="11">
+        <v>25518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14">
+        <v>14</v>
+      </c>
+      <c r="F30" s="10">
+        <v>59</v>
+      </c>
+      <c r="G30" s="11">
+        <v>30333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14">
+        <v>20</v>
+      </c>
+      <c r="F31" s="10">
+        <v>75</v>
+      </c>
+      <c r="G31" s="11">
+        <v>30994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7">
+        <f>AVERAGE(B22:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32:G32" si="1">AVERAGE(C22:C31)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>56.7</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="1"/>
+        <v>29637.599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>9</v>
+      </c>
+      <c r="F41" s="10">
+        <v>25</v>
+      </c>
+      <c r="G41" s="11">
+        <v>21379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10</v>
+      </c>
+      <c r="F42" s="10">
+        <v>29</v>
+      </c>
+      <c r="G42" s="11">
+        <v>18299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>9</v>
+      </c>
+      <c r="F43" s="10">
+        <v>30</v>
+      </c>
+      <c r="G43" s="11">
+        <v>21794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>6</v>
+      </c>
+      <c r="F44" s="10">
+        <v>31</v>
+      </c>
+      <c r="G44" s="11">
+        <v>19267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="10">
+        <v>44</v>
+      </c>
+      <c r="G45" s="11">
+        <v>18997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>7</v>
+      </c>
+      <c r="F46" s="10">
+        <v>27</v>
+      </c>
+      <c r="G46" s="11">
+        <v>17856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6</v>
+      </c>
+      <c r="F47" s="10">
+        <v>38</v>
+      </c>
+      <c r="G47" s="11">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7</v>
+      </c>
+      <c r="F48" s="10">
+        <v>27</v>
+      </c>
+      <c r="G48" s="11">
+        <v>18548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <v>7</v>
+      </c>
+      <c r="F49" s="10">
+        <v>30</v>
+      </c>
+      <c r="G49" s="11">
+        <v>22164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10">
+        <v>34</v>
+      </c>
+      <c r="G50" s="11">
+        <v>19526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="7">
+        <f>AVERAGE(B41:B50)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" ref="C51:G51" si="2">AVERAGE(C41:C50)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="2"/>
+        <v>19253.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="8">
+        <v>7</v>
+      </c>
+      <c r="F59" s="10">
+        <v>14</v>
+      </c>
+      <c r="G59" s="11">
+        <v>9567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>4</v>
+      </c>
+      <c r="F60" s="10">
+        <v>15</v>
+      </c>
+      <c r="G60" s="11">
+        <v>8276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="8">
+        <v>4</v>
+      </c>
+      <c r="F61" s="10">
+        <v>12</v>
+      </c>
+      <c r="G61" s="11">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>3</v>
+      </c>
+      <c r="F62" s="10">
+        <v>11</v>
+      </c>
+      <c r="G62" s="11">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2</v>
+      </c>
+      <c r="F63" s="10">
+        <v>15</v>
+      </c>
+      <c r="G63" s="11">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>4</v>
+      </c>
+      <c r="F64" s="10">
+        <v>16</v>
+      </c>
+      <c r="G64" s="11">
+        <v>9565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="10">
+        <v>12</v>
+      </c>
+      <c r="G65" s="11">
+        <v>8425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
+      <c r="E66" s="8">
+        <v>3</v>
+      </c>
+      <c r="F66" s="10">
+        <v>13</v>
+      </c>
+      <c r="G66" s="11">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2</v>
+      </c>
+      <c r="E67" s="8">
+        <v>3</v>
+      </c>
+      <c r="F67" s="10">
+        <v>20</v>
+      </c>
+      <c r="G67" s="11">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>3</v>
+      </c>
+      <c r="F68" s="10">
+        <v>15</v>
+      </c>
+      <c r="G68" s="11">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="7">
+        <f>AVERAGE(B59:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <f t="shared" ref="C69:G69" si="3">AVERAGE(C59:C68)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="3"/>
+        <v>14.3</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="3"/>
+        <v>8809.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8">
+        <v>2</v>
+      </c>
+      <c r="F77" s="10">
+        <v>6</v>
+      </c>
+      <c r="G77" s="11">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>2</v>
+      </c>
+      <c r="F78" s="10">
+        <v>5</v>
+      </c>
+      <c r="G78" s="11">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" s="10">
+        <v>6</v>
+      </c>
+      <c r="G79" s="11">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+      <c r="E80" s="8">
+        <v>3</v>
+      </c>
+      <c r="F80" s="10">
+        <v>8</v>
+      </c>
+      <c r="G80" s="11">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>2</v>
+      </c>
+      <c r="F81" s="10">
+        <v>8</v>
+      </c>
+      <c r="G81" s="11">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="10">
+        <v>4</v>
+      </c>
+      <c r="G82" s="11">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10">
+        <v>4</v>
+      </c>
+      <c r="G83" s="11">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2</v>
+      </c>
+      <c r="F84" s="10">
+        <v>3</v>
+      </c>
+      <c r="G84" s="11">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
+        <v>2</v>
+      </c>
+      <c r="F85" s="10">
+        <v>4</v>
+      </c>
+      <c r="G85" s="11">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10">
+        <v>3</v>
+      </c>
+      <c r="G86" s="11">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7">
+        <f>AVERAGE(B77:B86)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" ref="C87:G87" si="4">AVERAGE(C77:C86)</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="4"/>
+        <v>3990.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+      <c r="F95" s="10">
+        <v>2</v>
+      </c>
+      <c r="G95" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+      <c r="F96" s="10">
+        <v>2</v>
+      </c>
+      <c r="G96" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="10">
+        <v>1</v>
+      </c>
+      <c r="G97" s="11">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="10">
+        <v>1</v>
+      </c>
+      <c r="G98" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+      <c r="F100" s="10">
+        <v>1</v>
+      </c>
+      <c r="G100" s="11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="10">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="10">
+        <v>1</v>
+      </c>
+      <c r="G102" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1</v>
+      </c>
+      <c r="G103" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0</v>
+      </c>
+      <c r="F104" s="10">
+        <v>1</v>
+      </c>
+      <c r="G104" s="11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7">
+        <f>AVERAGE(B95:B104)</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="7">
+        <f t="shared" ref="C105:G105" si="5">AVERAGE(C95:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="5"/>
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F112" s="10">
+        <v>0</v>
+      </c>
+      <c r="G112" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0</v>
+      </c>
+      <c r="G114" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0</v>
+      </c>
+      <c r="G115" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="23"/>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+      <c r="F119" s="10">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="10">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0</v>
+      </c>
+      <c r="F121" s="10">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="7">
+        <f>AVERAGE(B112:B121)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="7">
+        <f t="shared" ref="C122:G122" si="6">AVERAGE(C112:C121)</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" si="6"/>
+        <v>15.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A95:A104"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A41:A50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>